--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2852,28 +2852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1802.645338753643</v>
+        <v>1948.362776763203</v>
       </c>
       <c r="AB2" t="n">
-        <v>2466.458879582338</v>
+        <v>2665.835906866675</v>
       </c>
       <c r="AC2" t="n">
-        <v>2231.063505811779</v>
+        <v>2411.412269439514</v>
       </c>
       <c r="AD2" t="n">
-        <v>1802645.338753643</v>
+        <v>1948362.776763203</v>
       </c>
       <c r="AE2" t="n">
-        <v>2466458.879582339</v>
+        <v>2665835.906866676</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.57262721672098e-07</v>
+        <v>1.280190203486153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.7554012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>2231063.505811779</v>
+        <v>2411412.269439514</v>
       </c>
     </row>
     <row r="3">
@@ -2958,28 +2958,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1056.294179349138</v>
+        <v>1160.353680540375</v>
       </c>
       <c r="AB3" t="n">
-        <v>1445.268296595792</v>
+        <v>1587.647096906834</v>
       </c>
       <c r="AC3" t="n">
-        <v>1307.333918815484</v>
+        <v>1436.124286254741</v>
       </c>
       <c r="AD3" t="n">
-        <v>1056294.179349138</v>
+        <v>1160353.680540375</v>
       </c>
       <c r="AE3" t="n">
-        <v>1445268.296595793</v>
+        <v>1587647.096906834</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.06943205502524e-06</v>
+        <v>1.807927950176054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.94675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>1307333.918815484</v>
+        <v>1436124.286254741</v>
       </c>
     </row>
     <row r="4">
@@ -3064,28 +3064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>897.9494411122465</v>
+        <v>981.2654042574442</v>
       </c>
       <c r="AB4" t="n">
-        <v>1228.614040063251</v>
+        <v>1342.61061647939</v>
       </c>
       <c r="AC4" t="n">
-        <v>1111.356840450249</v>
+        <v>1214.473743608432</v>
       </c>
       <c r="AD4" t="n">
-        <v>897949.4411122465</v>
+        <v>981265.4042574442</v>
       </c>
       <c r="AE4" t="n">
-        <v>1228614.040063251</v>
+        <v>1342610.61647939</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.191222210483843e-06</v>
+        <v>2.013820250743666e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.01003086419753</v>
       </c>
       <c r="AH4" t="n">
-        <v>1111356.840450249</v>
+        <v>1214473.743608432</v>
       </c>
     </row>
     <row r="5">
@@ -3170,28 +3170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>813.543397117547</v>
+        <v>896.774019408173</v>
       </c>
       <c r="AB5" t="n">
-        <v>1113.12596693785</v>
+        <v>1227.005776231791</v>
       </c>
       <c r="AC5" t="n">
-        <v>1006.890786935407</v>
+        <v>1109.902067061651</v>
       </c>
       <c r="AD5" t="n">
-        <v>813543.397117547</v>
+        <v>896774.019408173</v>
       </c>
       <c r="AE5" t="n">
-        <v>1113125.96693785</v>
+        <v>1227005.776231791</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.258393236284426e-06</v>
+        <v>2.127376202630675e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.1033950617284</v>
       </c>
       <c r="AH5" t="n">
-        <v>1006890.786935407</v>
+        <v>1109902.067061651</v>
       </c>
     </row>
     <row r="6">
@@ -3276,28 +3276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>752.6787070821829</v>
+        <v>835.9945807188294</v>
       </c>
       <c r="AB6" t="n">
-        <v>1029.848212870849</v>
+        <v>1143.84466681744</v>
       </c>
       <c r="AC6" t="n">
-        <v>931.5609448354992</v>
+        <v>1034.677737212456</v>
       </c>
       <c r="AD6" t="n">
-        <v>752678.7070821829</v>
+        <v>835994.5807188294</v>
       </c>
       <c r="AE6" t="n">
-        <v>1029848.212870849</v>
+        <v>1143844.66681744</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.300250396224274e-06</v>
+        <v>2.198137808302252e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.58256172839506</v>
       </c>
       <c r="AH6" t="n">
-        <v>931560.9448354992</v>
+        <v>1034677.737212456</v>
       </c>
     </row>
     <row r="7">
@@ -3382,28 +3382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>712.798603061642</v>
+        <v>795.9438844976964</v>
       </c>
       <c r="AB7" t="n">
-        <v>975.2824951639269</v>
+        <v>1089.045537335671</v>
       </c>
       <c r="AC7" t="n">
-        <v>882.2029026430599</v>
+        <v>985.1085597373655</v>
       </c>
       <c r="AD7" t="n">
-        <v>712798.603061642</v>
+        <v>795943.8844976964</v>
       </c>
       <c r="AE7" t="n">
-        <v>975282.4951639269</v>
+        <v>1089045.537335671</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.330816101475204e-06</v>
+        <v>2.249810649583127e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.22376543209877</v>
       </c>
       <c r="AH7" t="n">
-        <v>882202.90264306</v>
+        <v>985108.5597373655</v>
       </c>
     </row>
     <row r="8">
@@ -3488,28 +3488,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>688.2724675623405</v>
+        <v>761.1739465029573</v>
       </c>
       <c r="AB8" t="n">
-        <v>941.7247545570491</v>
+        <v>1041.471774229865</v>
       </c>
       <c r="AC8" t="n">
-        <v>851.8478657011179</v>
+        <v>942.0751698121816</v>
       </c>
       <c r="AD8" t="n">
-        <v>688272.4675623404</v>
+        <v>761173.9465029573</v>
       </c>
       <c r="AE8" t="n">
-        <v>941724.7545570491</v>
+        <v>1041471.774229865</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.347359395554316e-06</v>
+        <v>2.277777909039271e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.03858024691358</v>
       </c>
       <c r="AH8" t="n">
-        <v>851847.8657011179</v>
+        <v>942075.1698121816</v>
       </c>
     </row>
     <row r="9">
@@ -3594,28 +3594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>687.0230906973572</v>
+        <v>759.9245696379738</v>
       </c>
       <c r="AB9" t="n">
-        <v>940.0153020117618</v>
+        <v>1039.762321684578</v>
       </c>
       <c r="AC9" t="n">
-        <v>850.3015609075212</v>
+        <v>940.5288650185846</v>
       </c>
       <c r="AD9" t="n">
-        <v>687023.0906973572</v>
+        <v>759924.5696379738</v>
       </c>
       <c r="AE9" t="n">
-        <v>940015.3020117618</v>
+        <v>1039762.321684578</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.34830472664455e-06</v>
+        <v>2.279376038151051e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.02700617283951</v>
       </c>
       <c r="AH9" t="n">
-        <v>850301.5609075212</v>
+        <v>940528.8650185846</v>
       </c>
     </row>
   </sheetData>
@@ -3891,28 +3891,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1347.799798313496</v>
+        <v>1468.716020239226</v>
       </c>
       <c r="AB2" t="n">
-        <v>1844.1191447831</v>
+        <v>2009.562054069107</v>
       </c>
       <c r="AC2" t="n">
-        <v>1668.119001842475</v>
+        <v>1817.772272066808</v>
       </c>
       <c r="AD2" t="n">
-        <v>1347799.798313496</v>
+        <v>1468716.020239226</v>
       </c>
       <c r="AE2" t="n">
-        <v>1844119.1447831</v>
+        <v>2009562.054069107</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.98230346254699e-07</v>
+        <v>1.555547236292314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1668119.001842475</v>
+        <v>1817772.272066808</v>
       </c>
     </row>
     <row r="3">
@@ -3997,28 +3997,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>864.9328449517806</v>
+        <v>955.7479555465218</v>
       </c>
       <c r="AB3" t="n">
-        <v>1183.439276607079</v>
+        <v>1307.69651740272</v>
       </c>
       <c r="AC3" t="n">
-        <v>1070.493493015156</v>
+        <v>1182.891797145393</v>
       </c>
       <c r="AD3" t="n">
-        <v>864932.8449517805</v>
+        <v>955747.9555465218</v>
       </c>
       <c r="AE3" t="n">
-        <v>1183439.276607079</v>
+        <v>1307696.51740272</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.186611564298608e-06</v>
+        <v>2.054963236427777e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.66203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>1070493.493015155</v>
+        <v>1182891.797145393</v>
       </c>
     </row>
     <row r="4">
@@ -4103,28 +4103,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>743.2838085239417</v>
+        <v>823.9230999288022</v>
       </c>
       <c r="AB4" t="n">
-        <v>1016.993698189791</v>
+        <v>1127.327934244378</v>
       </c>
       <c r="AC4" t="n">
-        <v>919.9332469941769</v>
+        <v>1019.737338414787</v>
       </c>
       <c r="AD4" t="n">
-        <v>743283.8085239418</v>
+        <v>823923.0999288022</v>
       </c>
       <c r="AE4" t="n">
-        <v>1016993.698189791</v>
+        <v>1127327.934244378</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.297715481197589e-06</v>
+        <v>2.247372000609582e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.15354938271605</v>
       </c>
       <c r="AH4" t="n">
-        <v>919933.2469941769</v>
+        <v>1019737.338414787</v>
       </c>
     </row>
     <row r="5">
@@ -4209,28 +4209,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>671.3943976375023</v>
+        <v>751.948348187791</v>
       </c>
       <c r="AB5" t="n">
-        <v>918.6314346779923</v>
+        <v>1028.848903610382</v>
       </c>
       <c r="AC5" t="n">
-        <v>830.9585398596402</v>
+        <v>930.6570082483117</v>
       </c>
       <c r="AD5" t="n">
-        <v>671394.3976375023</v>
+        <v>751948.348187791</v>
       </c>
       <c r="AE5" t="n">
-        <v>918631.4346779922</v>
+        <v>1028848.903610382</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.356282729323311e-06</v>
+        <v>2.348798234246739e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.45524691358025</v>
       </c>
       <c r="AH5" t="n">
-        <v>830958.5398596402</v>
+        <v>930657.0082483117</v>
       </c>
     </row>
     <row r="6">
@@ -4315,28 +4315,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>632.9319295995775</v>
+        <v>703.5659940151495</v>
       </c>
       <c r="AB6" t="n">
-        <v>866.0053890641713</v>
+        <v>962.6500321525516</v>
       </c>
       <c r="AC6" t="n">
-        <v>783.3550501780835</v>
+        <v>870.7760641717173</v>
       </c>
       <c r="AD6" t="n">
-        <v>632931.9295995776</v>
+        <v>703565.9940151495</v>
       </c>
       <c r="AE6" t="n">
-        <v>866005.3890641712</v>
+        <v>962650.0321525516</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.387522216959945e-06</v>
+        <v>2.402898498014239e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.10802469135802</v>
       </c>
       <c r="AH6" t="n">
-        <v>783355.0501780835</v>
+        <v>870776.0641717173</v>
       </c>
     </row>
     <row r="7">
@@ -4421,28 +4421,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>631.0321317232756</v>
+        <v>701.6661961388476</v>
       </c>
       <c r="AB7" t="n">
-        <v>863.406001796648</v>
+        <v>960.0506448850281</v>
       </c>
       <c r="AC7" t="n">
-        <v>781.0037447831094</v>
+        <v>868.4247587767431</v>
       </c>
       <c r="AD7" t="n">
-        <v>631032.1317232756</v>
+        <v>701666.1961388476</v>
       </c>
       <c r="AE7" t="n">
-        <v>863406.0017966479</v>
+        <v>960050.6448850281</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.389478080533716e-06</v>
+        <v>2.40628564496316e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.08487654320988</v>
       </c>
       <c r="AH7" t="n">
-        <v>781003.7447831094</v>
+        <v>868424.7587767432</v>
       </c>
     </row>
   </sheetData>
@@ -4718,28 +4718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>607.3052786709112</v>
+        <v>689.1729769847575</v>
       </c>
       <c r="AB2" t="n">
-        <v>830.9418746955228</v>
+        <v>942.9568712764722</v>
       </c>
       <c r="AC2" t="n">
-        <v>751.637948408827</v>
+        <v>852.9623909301257</v>
       </c>
       <c r="AD2" t="n">
-        <v>607305.2786709112</v>
+        <v>689172.9769847575</v>
       </c>
       <c r="AE2" t="n">
-        <v>830941.8746955227</v>
+        <v>942956.8712764721</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.351548249820672e-06</v>
+        <v>2.557420127949542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.3070987654321</v>
       </c>
       <c r="AH2" t="n">
-        <v>751637.9484088271</v>
+        <v>852962.3909301257</v>
       </c>
     </row>
     <row r="3">
@@ -4824,28 +4824,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>498.5444965975598</v>
+        <v>571.4674214992828</v>
       </c>
       <c r="AB3" t="n">
-        <v>682.1305744756972</v>
+        <v>781.9069374586272</v>
       </c>
       <c r="AC3" t="n">
-        <v>617.0289898240101</v>
+        <v>707.2828367608544</v>
       </c>
       <c r="AD3" t="n">
-        <v>498544.4965975598</v>
+        <v>571467.4214992827</v>
       </c>
       <c r="AE3" t="n">
-        <v>682130.5744756972</v>
+        <v>781906.9374586273</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.48504198114323e-06</v>
+        <v>2.810018994090428e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.74845679012346</v>
       </c>
       <c r="AH3" t="n">
-        <v>617028.9898240101</v>
+        <v>707282.8367608543</v>
       </c>
     </row>
   </sheetData>
@@ -5121,28 +5121,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>829.821066434467</v>
+        <v>924.6167820235994</v>
       </c>
       <c r="AB2" t="n">
-        <v>1135.397792217347</v>
+        <v>1265.101472378213</v>
       </c>
       <c r="AC2" t="n">
-        <v>1027.037020468933</v>
+        <v>1144.361963435504</v>
       </c>
       <c r="AD2" t="n">
-        <v>829821.066434467</v>
+        <v>924616.7820235994</v>
       </c>
       <c r="AE2" t="n">
-        <v>1135397.792217347</v>
+        <v>1265101.472378213</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.168057958212929e-06</v>
+        <v>2.127947927133769e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.1550925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1027037.020468933</v>
+        <v>1144361.963435504</v>
       </c>
     </row>
     <row r="3">
@@ -5227,28 +5227,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>586.3052635144932</v>
+        <v>671.6042588161021</v>
       </c>
       <c r="AB3" t="n">
-        <v>802.2087275032287</v>
+        <v>918.9185760009746</v>
       </c>
       <c r="AC3" t="n">
-        <v>725.6470524573401</v>
+        <v>831.2182768177623</v>
       </c>
       <c r="AD3" t="n">
-        <v>586305.2635144931</v>
+        <v>671604.2588161021</v>
       </c>
       <c r="AE3" t="n">
-        <v>802208.7275032287</v>
+        <v>918918.5760009745</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.407527238722422e-06</v>
+        <v>2.564208949533735e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.89506172839506</v>
       </c>
       <c r="AH3" t="n">
-        <v>725647.0524573402</v>
+        <v>831218.2768177623</v>
       </c>
     </row>
     <row r="4">
@@ -5333,28 +5333,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>545.2522693051689</v>
+        <v>621.0547233363563</v>
       </c>
       <c r="AB4" t="n">
-        <v>746.03820969575</v>
+        <v>849.7544714694728</v>
       </c>
       <c r="AC4" t="n">
-        <v>674.8373700335901</v>
+        <v>768.6550973503169</v>
       </c>
       <c r="AD4" t="n">
-        <v>545252.2693051689</v>
+        <v>621054.7233363563</v>
       </c>
       <c r="AE4" t="n">
-        <v>746038.2096957499</v>
+        <v>849754.4714694729</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.455838672644536e-06</v>
+        <v>2.65222189011479e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.37037037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>674837.3700335901</v>
+        <v>768655.0973503168</v>
       </c>
     </row>
   </sheetData>
@@ -5630,28 +5630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>475.1026855342882</v>
+        <v>545.4386339248063</v>
       </c>
       <c r="AB2" t="n">
-        <v>650.0564543992136</v>
+        <v>746.2932019901643</v>
       </c>
       <c r="AC2" t="n">
-        <v>588.0159787513159</v>
+        <v>675.0680262213097</v>
       </c>
       <c r="AD2" t="n">
-        <v>475102.6855342882</v>
+        <v>545438.6339248063</v>
       </c>
       <c r="AE2" t="n">
-        <v>650056.4543992137</v>
+        <v>746293.2019901644</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.48378548513423e-06</v>
+        <v>2.907741474485859e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.3695987654321</v>
       </c>
       <c r="AH2" t="n">
-        <v>588015.9787513159</v>
+        <v>675068.0262213097</v>
       </c>
     </row>
     <row r="3">
@@ -5736,28 +5736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>476.6904551633024</v>
+        <v>547.0264035538204</v>
       </c>
       <c r="AB3" t="n">
-        <v>652.228910853083</v>
+        <v>748.4656584440337</v>
       </c>
       <c r="AC3" t="n">
-        <v>589.9810990102898</v>
+        <v>677.0331464802837</v>
       </c>
       <c r="AD3" t="n">
-        <v>476690.4551633024</v>
+        <v>547026.4035538203</v>
       </c>
       <c r="AE3" t="n">
-        <v>652228.910853083</v>
+        <v>748465.6584440337</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.486115115234797e-06</v>
+        <v>2.912306798875063e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.34645061728395</v>
       </c>
       <c r="AH3" t="n">
-        <v>589981.0990102898</v>
+        <v>677033.1464802837</v>
       </c>
     </row>
   </sheetData>
@@ -6033,28 +6033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1454.265860091018</v>
+        <v>1576.289086625191</v>
       </c>
       <c r="AB2" t="n">
-        <v>1989.790707458257</v>
+        <v>2156.748269287133</v>
       </c>
       <c r="AC2" t="n">
-        <v>1799.887875027237</v>
+        <v>1950.911241481576</v>
       </c>
       <c r="AD2" t="n">
-        <v>1454265.860091018</v>
+        <v>1576289.086625191</v>
       </c>
       <c r="AE2" t="n">
-        <v>1989790.707458257</v>
+        <v>2156748.269287133</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.606564625850456e-07</v>
+        <v>1.480743269809667e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.1358024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>1799887.875027237</v>
+        <v>1950911.241481576</v>
       </c>
     </row>
     <row r="3">
@@ -6139,28 +6139,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>908.8299023079351</v>
+        <v>1010.416285498953</v>
       </c>
       <c r="AB3" t="n">
-        <v>1243.501167083262</v>
+        <v>1382.496138240138</v>
       </c>
       <c r="AC3" t="n">
-        <v>1124.823160961684</v>
+        <v>1250.552647152015</v>
       </c>
       <c r="AD3" t="n">
-        <v>908829.9023079351</v>
+        <v>1010416.285498953</v>
       </c>
       <c r="AE3" t="n">
-        <v>1243501.167083262</v>
+        <v>1382496.138240138</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.15570791175402e-06</v>
+        <v>1.988373743288364e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.97453703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>1124823.160961684</v>
+        <v>1250552.647152015</v>
       </c>
     </row>
     <row r="4">
@@ -6245,28 +6245,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>779.0766740206426</v>
+        <v>860.3970745947507</v>
       </c>
       <c r="AB4" t="n">
-        <v>1065.967075832158</v>
+        <v>1177.233235500526</v>
       </c>
       <c r="AC4" t="n">
-        <v>964.2326742089234</v>
+        <v>1064.879747761578</v>
       </c>
       <c r="AD4" t="n">
-        <v>779076.6740206426</v>
+        <v>860397.0745947508</v>
       </c>
       <c r="AE4" t="n">
-        <v>1065967.075832158</v>
+        <v>1177233.235500526</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.269690378522399e-06</v>
+        <v>2.184478435323839e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.35802469135803</v>
       </c>
       <c r="AH4" t="n">
-        <v>964232.6742089234</v>
+        <v>1064879.747761578</v>
       </c>
     </row>
     <row r="5">
@@ -6351,28 +6351,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>703.6027612263714</v>
+        <v>785.0084131465002</v>
       </c>
       <c r="AB5" t="n">
-        <v>962.7003386730004</v>
+        <v>1074.083142994017</v>
       </c>
       <c r="AC5" t="n">
-        <v>870.8215695084599</v>
+        <v>971.5741553118268</v>
       </c>
       <c r="AD5" t="n">
-        <v>703602.7612263714</v>
+        <v>785008.4131465001</v>
       </c>
       <c r="AE5" t="n">
-        <v>962700.3386730003</v>
+        <v>1074083.142994017</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.331069694590397e-06</v>
+        <v>2.290080395135101e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.60570987654321</v>
       </c>
       <c r="AH5" t="n">
-        <v>870821.5695084599</v>
+        <v>971574.1553118267</v>
       </c>
     </row>
     <row r="6">
@@ -6457,28 +6457,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>656.8426089753057</v>
+        <v>728.0726439139693</v>
       </c>
       <c r="AB6" t="n">
-        <v>898.7210354507678</v>
+        <v>996.1811117012061</v>
       </c>
       <c r="AC6" t="n">
-        <v>812.948361190241</v>
+        <v>901.1069845494137</v>
       </c>
       <c r="AD6" t="n">
-        <v>656842.6089753057</v>
+        <v>728072.6439139693</v>
       </c>
       <c r="AE6" t="n">
-        <v>898721.0354507677</v>
+        <v>996181.1117012061</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.369351004874912e-06</v>
+        <v>2.355942670070019e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.16975308641975</v>
       </c>
       <c r="AH6" t="n">
-        <v>812948.3611902411</v>
+        <v>901106.9845494137</v>
       </c>
     </row>
     <row r="7">
@@ -6563,28 +6563,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>644.0561135003309</v>
+        <v>715.2861484389946</v>
       </c>
       <c r="AB7" t="n">
-        <v>881.2259882415391</v>
+        <v>978.6860644919775</v>
       </c>
       <c r="AC7" t="n">
-        <v>797.1230167322084</v>
+        <v>885.281640091381</v>
       </c>
       <c r="AD7" t="n">
-        <v>644056.1135003308</v>
+        <v>715286.1484389945</v>
       </c>
       <c r="AE7" t="n">
-        <v>881225.9882415391</v>
+        <v>978686.0644919774</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.378934792822371e-06</v>
+        <v>2.372431397128269e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.06558641975309</v>
       </c>
       <c r="AH7" t="n">
-        <v>797123.0167322084</v>
+        <v>885281.6400913809</v>
       </c>
     </row>
   </sheetData>
@@ -6860,28 +6860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>454.7201072150937</v>
+        <v>532.1920457068137</v>
       </c>
       <c r="AB2" t="n">
-        <v>622.1681115269998</v>
+        <v>728.1686355920795</v>
       </c>
       <c r="AC2" t="n">
-        <v>562.7892601812911</v>
+        <v>658.6732430022694</v>
       </c>
       <c r="AD2" t="n">
-        <v>454720.1072150937</v>
+        <v>532192.0457068137</v>
       </c>
       <c r="AE2" t="n">
-        <v>622168.1115269999</v>
+        <v>728168.6355920795</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.476725085333126e-06</v>
+        <v>2.960332265707625e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.83256172839506</v>
       </c>
       <c r="AH2" t="n">
-        <v>562789.260181291</v>
+        <v>658673.2430022694</v>
       </c>
     </row>
   </sheetData>
@@ -7157,28 +7157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1072.366965271274</v>
+        <v>1180.153142258147</v>
       </c>
       <c r="AB2" t="n">
-        <v>1467.25979137573</v>
+        <v>1614.737593919692</v>
       </c>
       <c r="AC2" t="n">
-        <v>1327.22657619888</v>
+        <v>1460.629304254443</v>
       </c>
       <c r="AD2" t="n">
-        <v>1072366.965271275</v>
+        <v>1180153.142258147</v>
       </c>
       <c r="AE2" t="n">
-        <v>1467259.79137573</v>
+        <v>1614737.593919692</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.02139891193797e-06</v>
+        <v>1.808973370028822e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.14197530864197</v>
       </c>
       <c r="AH2" t="n">
-        <v>1327226.57619888</v>
+        <v>1460629.304254443</v>
       </c>
     </row>
     <row r="3">
@@ -7263,28 +7263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>724.8841524643082</v>
+        <v>813.1270773085711</v>
       </c>
       <c r="AB3" t="n">
-        <v>991.8184770334647</v>
+        <v>1112.556339808475</v>
       </c>
       <c r="AC3" t="n">
-        <v>897.1607136113653</v>
+        <v>1006.375524219783</v>
       </c>
       <c r="AD3" t="n">
-        <v>724884.1524643082</v>
+        <v>813127.0773085711</v>
       </c>
       <c r="AE3" t="n">
-        <v>991818.4770334647</v>
+        <v>1112556.339808475</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.289413269934298e-06</v>
+        <v>2.283646713356384e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.74768518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>897160.7136113653</v>
+        <v>1006375.524219783</v>
       </c>
     </row>
     <row r="4">
@@ -7369,28 +7369,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>621.9869413752587</v>
+        <v>700.5009553297781</v>
       </c>
       <c r="AB4" t="n">
-        <v>851.0299733168562</v>
+        <v>958.456311003263</v>
       </c>
       <c r="AC4" t="n">
-        <v>769.8088670915638</v>
+        <v>866.9825858829921</v>
       </c>
       <c r="AD4" t="n">
-        <v>621986.9413752586</v>
+        <v>700500.9553297781</v>
       </c>
       <c r="AE4" t="n">
-        <v>851029.9733168562</v>
+        <v>958456.311003263</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.390002618580789e-06</v>
+        <v>2.461797924291978e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.53626543209877</v>
       </c>
       <c r="AH4" t="n">
-        <v>769808.8670915638</v>
+        <v>866982.5858829921</v>
       </c>
     </row>
     <row r="5">
@@ -7475,28 +7475,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>588.5911811011279</v>
+        <v>657.2910328198836</v>
       </c>
       <c r="AB5" t="n">
-        <v>805.3364207928288</v>
+        <v>899.3345887379832</v>
       </c>
       <c r="AC5" t="n">
-        <v>728.4762430891259</v>
+        <v>813.5033578128522</v>
       </c>
       <c r="AD5" t="n">
-        <v>588591.1811011279</v>
+        <v>657291.0328198837</v>
       </c>
       <c r="AE5" t="n">
-        <v>805336.4207928288</v>
+        <v>899334.5887379831</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.422748733749514e-06</v>
+        <v>2.51979372751809e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.17746913580247</v>
       </c>
       <c r="AH5" t="n">
-        <v>728476.2430891258</v>
+        <v>813503.3578128521</v>
       </c>
     </row>
     <row r="6">
@@ -7581,28 +7581,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>591.238799590152</v>
+        <v>669.5822213440794</v>
       </c>
       <c r="AB6" t="n">
-        <v>808.9590092141955</v>
+        <v>916.1519351257556</v>
       </c>
       <c r="AC6" t="n">
-        <v>731.7530967558922</v>
+        <v>828.7156802646697</v>
       </c>
       <c r="AD6" t="n">
-        <v>591238.799590152</v>
+        <v>669582.2213440794</v>
       </c>
       <c r="AE6" t="n">
-        <v>808959.0092141954</v>
+        <v>916151.9351257556</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.422188971097057e-06</v>
+        <v>2.518802346266362e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.18518518518518</v>
       </c>
       <c r="AH6" t="n">
-        <v>731753.0967558923</v>
+        <v>828715.6802646697</v>
       </c>
     </row>
   </sheetData>
@@ -7878,28 +7878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1246.41077405066</v>
+        <v>1366.351733521996</v>
       </c>
       <c r="AB2" t="n">
-        <v>1705.394208818623</v>
+        <v>1869.502720988987</v>
       </c>
       <c r="AC2" t="n">
-        <v>1542.633779064778</v>
+        <v>1691.080005161346</v>
       </c>
       <c r="AD2" t="n">
-        <v>1246410.77405066</v>
+        <v>1366351.733521996</v>
       </c>
       <c r="AE2" t="n">
-        <v>1705394.208818623</v>
+        <v>1869502.720988987</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.380240886552023e-07</v>
+        <v>1.635832103097583e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.55787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1542633.779064778</v>
+        <v>1691080.005161346</v>
       </c>
     </row>
     <row r="3">
@@ -7984,28 +7984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>820.8484200525623</v>
+        <v>910.697553096401</v>
       </c>
       <c r="AB3" t="n">
-        <v>1123.121021592405</v>
+        <v>1246.056569286979</v>
       </c>
       <c r="AC3" t="n">
-        <v>1015.931927601879</v>
+        <v>1127.134679165608</v>
       </c>
       <c r="AD3" t="n">
-        <v>820848.4200525624</v>
+        <v>910697.5530964009</v>
       </c>
       <c r="AE3" t="n">
-        <v>1123121.021592404</v>
+        <v>1246056.569286979</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.219656182161866e-06</v>
+        <v>2.126973882282877e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.34953703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>1015931.927601879</v>
+        <v>1127134.679165608</v>
       </c>
     </row>
     <row r="4">
@@ -8090,28 +8090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>695.6420442279787</v>
+        <v>785.4910877632663</v>
       </c>
       <c r="AB4" t="n">
-        <v>951.808134473752</v>
+        <v>1074.743559698778</v>
       </c>
       <c r="AC4" t="n">
-        <v>860.9689019906833</v>
+        <v>972.1715427731858</v>
       </c>
       <c r="AD4" t="n">
-        <v>695642.0442279787</v>
+        <v>785491.0877632663</v>
       </c>
       <c r="AE4" t="n">
-        <v>951808.134473752</v>
+        <v>1074743.559698778</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.328524674004266e-06</v>
+        <v>2.316831025745936e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.92592592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>860968.9019906833</v>
+        <v>972171.5427731858</v>
       </c>
     </row>
     <row r="5">
@@ -8196,28 +8196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>634.4418409834411</v>
+        <v>714.2887823334539</v>
       </c>
       <c r="AB5" t="n">
-        <v>868.0713164321622</v>
+        <v>977.3214241856898</v>
       </c>
       <c r="AC5" t="n">
-        <v>785.2238083376204</v>
+        <v>884.0472391406405</v>
       </c>
       <c r="AD5" t="n">
-        <v>634441.8409834411</v>
+        <v>714288.7823334539</v>
       </c>
       <c r="AE5" t="n">
-        <v>868071.3164321622</v>
+        <v>977321.4241856898</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.385783467698708e-06</v>
+        <v>2.416685362156734e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.27006172839506</v>
       </c>
       <c r="AH5" t="n">
-        <v>785223.8083376205</v>
+        <v>884047.2391406405</v>
       </c>
     </row>
     <row r="6">
@@ -8302,28 +8302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>616.3159695546127</v>
+        <v>686.3314009199432</v>
       </c>
       <c r="AB6" t="n">
-        <v>843.2706994862289</v>
+        <v>939.068901543105</v>
       </c>
       <c r="AC6" t="n">
-        <v>762.7901274651224</v>
+        <v>849.4454835713112</v>
       </c>
       <c r="AD6" t="n">
-        <v>616315.9695546128</v>
+        <v>686331.4009199432</v>
       </c>
       <c r="AE6" t="n">
-        <v>843270.6994862289</v>
+        <v>939068.901543105</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.400262702885808e-06</v>
+        <v>2.441935884007741e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.11188271604938</v>
       </c>
       <c r="AH6" t="n">
-        <v>762790.1274651224</v>
+        <v>849445.4835713112</v>
       </c>
     </row>
     <row r="7">
@@ -8408,28 +8408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>619.3747560373558</v>
+        <v>689.3901874026865</v>
       </c>
       <c r="AB7" t="n">
-        <v>847.455866096054</v>
+        <v>943.2540681529298</v>
       </c>
       <c r="AC7" t="n">
-        <v>766.5758676476239</v>
+        <v>853.231223753813</v>
       </c>
       <c r="AD7" t="n">
-        <v>619374.7560373559</v>
+        <v>689390.1874026865</v>
       </c>
       <c r="AE7" t="n">
-        <v>847455.866096054</v>
+        <v>943254.0681529298</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.399769092595339e-06</v>
+        <v>2.44107507076282e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.11574074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>766575.8676476239</v>
+        <v>853231.223753813</v>
       </c>
     </row>
   </sheetData>
@@ -8705,28 +8705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1674.009836612434</v>
+        <v>1818.563109437181</v>
       </c>
       <c r="AB2" t="n">
-        <v>2290.454110554904</v>
+        <v>2488.238275674037</v>
       </c>
       <c r="AC2" t="n">
-        <v>2071.856384916077</v>
+        <v>2250.76430690806</v>
       </c>
       <c r="AD2" t="n">
-        <v>1674009.836612434</v>
+        <v>1818563.109437181</v>
       </c>
       <c r="AE2" t="n">
-        <v>2290454.110554904</v>
+        <v>2488238.275674037</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.906853708191545e-07</v>
+        <v>1.344112726629443e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.82947530864198</v>
       </c>
       <c r="AH2" t="n">
-        <v>2071856.384916077</v>
+        <v>2250764.30690806</v>
       </c>
     </row>
     <row r="3">
@@ -8811,28 +8811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1009.247028866965</v>
+        <v>1112.535941250887</v>
       </c>
       <c r="AB3" t="n">
-        <v>1380.896309732291</v>
+        <v>1522.220756441185</v>
       </c>
       <c r="AC3" t="n">
-        <v>1249.105504031583</v>
+        <v>1376.942143896688</v>
       </c>
       <c r="AD3" t="n">
-        <v>1009247.028866965</v>
+        <v>1112535.941250887</v>
       </c>
       <c r="AE3" t="n">
-        <v>1380896.309732291</v>
+        <v>1522220.756441185</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.097780030441672e-06</v>
+        <v>1.866153294865745e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.60339506172839</v>
       </c>
       <c r="AH3" t="n">
-        <v>1249105.504031583</v>
+        <v>1376942.143896688</v>
       </c>
     </row>
     <row r="4">
@@ -8917,28 +8917,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>850.688790670119</v>
+        <v>943.6402777301918</v>
       </c>
       <c r="AB4" t="n">
-        <v>1163.949933135586</v>
+        <v>1291.130258461371</v>
       </c>
       <c r="AC4" t="n">
-        <v>1052.864185131116</v>
+        <v>1167.906598706516</v>
       </c>
       <c r="AD4" t="n">
-        <v>850688.790670119</v>
+        <v>943640.2777301918</v>
       </c>
       <c r="AE4" t="n">
-        <v>1163949.933135586</v>
+        <v>1291130.258461371</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.217155734190814e-06</v>
+        <v>2.06908407944993e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.77854938271605</v>
       </c>
       <c r="AH4" t="n">
-        <v>1052864.185131116</v>
+        <v>1167906.598706516</v>
       </c>
     </row>
     <row r="5">
@@ -9023,28 +9023,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>770.1748466376217</v>
+        <v>863.0409928431227</v>
       </c>
       <c r="AB5" t="n">
-        <v>1053.787202885801</v>
+        <v>1180.850761089389</v>
       </c>
       <c r="AC5" t="n">
-        <v>953.2152312420081</v>
+        <v>1068.15202178547</v>
       </c>
       <c r="AD5" t="n">
-        <v>770174.8466376218</v>
+        <v>863040.9928431227</v>
       </c>
       <c r="AE5" t="n">
-        <v>1053787.202885801</v>
+        <v>1180850.761089389</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.281846248595006e-06</v>
+        <v>2.179053666484021e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.93364197530864</v>
       </c>
       <c r="AH5" t="n">
-        <v>953215.2312420082</v>
+        <v>1068152.021785469</v>
       </c>
     </row>
     <row r="6">
@@ -9129,28 +9129,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>719.8708260371599</v>
+        <v>802.3996364273626</v>
       </c>
       <c r="AB6" t="n">
-        <v>984.9590226434879</v>
+        <v>1097.878581933515</v>
       </c>
       <c r="AC6" t="n">
-        <v>890.9559159210634</v>
+        <v>993.0985909560469</v>
       </c>
       <c r="AD6" t="n">
-        <v>719870.8260371599</v>
+        <v>802399.6364273626</v>
       </c>
       <c r="AE6" t="n">
-        <v>984959.0226434879</v>
+        <v>1097878.581933515</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.324937966045916e-06</v>
+        <v>2.252306730187581e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.41280864197531</v>
       </c>
       <c r="AH6" t="n">
-        <v>890955.9159210634</v>
+        <v>993098.5909560469</v>
       </c>
     </row>
     <row r="7">
@@ -9235,28 +9235,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>684.1847906094704</v>
+        <v>756.5468573849668</v>
       </c>
       <c r="AB7" t="n">
-        <v>936.1318146145528</v>
+        <v>1035.140786765866</v>
       </c>
       <c r="AC7" t="n">
-        <v>846.7887080969928</v>
+        <v>936.3484029061497</v>
       </c>
       <c r="AD7" t="n">
-        <v>684184.7906094703</v>
+        <v>756546.8573849668</v>
       </c>
       <c r="AE7" t="n">
-        <v>936131.8146145528</v>
+        <v>1035140.786765866</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.350401253630545e-06</v>
+        <v>2.295592631466957e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.12345679012346</v>
       </c>
       <c r="AH7" t="n">
-        <v>846788.7080969928</v>
+        <v>936348.4029061496</v>
       </c>
     </row>
     <row r="8">
@@ -9341,28 +9341,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>672.4572139901557</v>
+        <v>744.8192807656521</v>
       </c>
       <c r="AB8" t="n">
-        <v>920.085626899841</v>
+        <v>1019.094599051154</v>
       </c>
       <c r="AC8" t="n">
-        <v>832.2739460168074</v>
+        <v>921.8336408259643</v>
       </c>
       <c r="AD8" t="n">
-        <v>672457.2139901556</v>
+        <v>744819.2807656522</v>
       </c>
       <c r="AE8" t="n">
-        <v>920085.626899841</v>
+        <v>1019094.599051154</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.357600852614972e-06</v>
+        <v>2.307831472577134e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.04243827160494</v>
       </c>
       <c r="AH8" t="n">
-        <v>832273.9460168073</v>
+        <v>921833.6408259643</v>
       </c>
     </row>
     <row r="9">
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>674.9590736806083</v>
+        <v>747.3211404561048</v>
       </c>
       <c r="AB9" t="n">
-        <v>923.5087817025781</v>
+        <v>1022.517753853891</v>
       </c>
       <c r="AC9" t="n">
-        <v>835.3703997295989</v>
+        <v>924.930094538756</v>
       </c>
       <c r="AD9" t="n">
-        <v>674959.0736806083</v>
+        <v>747321.1404561048</v>
       </c>
       <c r="AE9" t="n">
-        <v>923508.7817025781</v>
+        <v>1022517.753853891</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.357389099703665e-06</v>
+        <v>2.307471506662128e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.0462962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>835370.3997295989</v>
+        <v>924930.0945387559</v>
       </c>
     </row>
   </sheetData>
@@ -9744,28 +9744,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>900.7238809561807</v>
+        <v>996.8053445677206</v>
       </c>
       <c r="AB2" t="n">
-        <v>1232.410151057369</v>
+        <v>1363.873048385691</v>
       </c>
       <c r="AC2" t="n">
-        <v>1114.790655938963</v>
+        <v>1233.706918855606</v>
       </c>
       <c r="AD2" t="n">
-        <v>900723.8809561806</v>
+        <v>996805.3445677205</v>
       </c>
       <c r="AE2" t="n">
-        <v>1232410.151057369</v>
+        <v>1363873.048385691</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.116499406356356e-06</v>
+        <v>2.013312638015795e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1114790.655938963</v>
+        <v>1233706.918855606</v>
       </c>
     </row>
     <row r="3">
@@ -9850,28 +9850,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>638.4398462476129</v>
+        <v>715.2197657908243</v>
       </c>
       <c r="AB3" t="n">
-        <v>873.5415636141461</v>
+        <v>978.5952368241551</v>
       </c>
       <c r="AC3" t="n">
-        <v>790.171982806096</v>
+        <v>885.199480888698</v>
       </c>
       <c r="AD3" t="n">
-        <v>638439.8462476128</v>
+        <v>715219.7657908243</v>
       </c>
       <c r="AE3" t="n">
-        <v>873541.5636141461</v>
+        <v>978595.2368241551</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.367003043360855e-06</v>
+        <v>2.465029974701155e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.16512345679012</v>
       </c>
       <c r="AH3" t="n">
-        <v>790171.982806096</v>
+        <v>885199.480888698</v>
       </c>
     </row>
     <row r="4">
@@ -9956,28 +9956,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>561.0069099404346</v>
+        <v>637.7014886290742</v>
       </c>
       <c r="AB4" t="n">
-        <v>767.5944040586112</v>
+        <v>872.5313101464224</v>
       </c>
       <c r="AC4" t="n">
-        <v>694.336271460769</v>
+        <v>789.2581465114324</v>
       </c>
       <c r="AD4" t="n">
-        <v>561006.9099404346</v>
+        <v>637701.4886290742</v>
       </c>
       <c r="AE4" t="n">
-        <v>767594.4040586111</v>
+        <v>872531.3101464224</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.443688998996205e-06</v>
+        <v>2.603312899671821e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.30478395061728</v>
       </c>
       <c r="AH4" t="n">
-        <v>694336.271460769</v>
+        <v>789258.1465114324</v>
       </c>
     </row>
     <row r="5">
@@ -10062,28 +10062,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>561.4822981328747</v>
+        <v>638.1768768215144</v>
       </c>
       <c r="AB5" t="n">
-        <v>768.2448511561545</v>
+        <v>873.1817572439659</v>
       </c>
       <c r="AC5" t="n">
-        <v>694.924640800231</v>
+        <v>789.8465158508944</v>
       </c>
       <c r="AD5" t="n">
-        <v>561482.2981328747</v>
+        <v>638176.8768215143</v>
       </c>
       <c r="AE5" t="n">
-        <v>768244.8511561545</v>
+        <v>873181.7572439659</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.445178046678445e-06</v>
+        <v>2.605998005011058e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.28935185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>694924.640800231</v>
+        <v>789846.5158508944</v>
       </c>
     </row>
   </sheetData>
@@ -10359,28 +10359,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>673.612478438764</v>
+        <v>765.9590017243834</v>
       </c>
       <c r="AB2" t="n">
-        <v>921.6663106850975</v>
+        <v>1048.018897885557</v>
       </c>
       <c r="AC2" t="n">
-        <v>833.7037715601024</v>
+        <v>947.9974451751206</v>
       </c>
       <c r="AD2" t="n">
-        <v>673612.478438764</v>
+        <v>765959.0017243833</v>
       </c>
       <c r="AE2" t="n">
-        <v>921666.3106850975</v>
+        <v>1048018.897885557</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.28579733858023e-06</v>
+        <v>2.398886838009033e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.90123456790123</v>
       </c>
       <c r="AH2" t="n">
-        <v>833703.7715601024</v>
+        <v>947997.4451751206</v>
       </c>
     </row>
     <row r="3">
@@ -10465,28 +10465,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>514.7650609444898</v>
+        <v>588.7788249402998</v>
       </c>
       <c r="AB3" t="n">
-        <v>704.3242662159613</v>
+        <v>805.5931633718457</v>
       </c>
       <c r="AC3" t="n">
-        <v>637.1045467736254</v>
+        <v>728.7084825167419</v>
       </c>
       <c r="AD3" t="n">
-        <v>514765.0609444899</v>
+        <v>588778.8249402998</v>
       </c>
       <c r="AE3" t="n">
-        <v>704324.2662159613</v>
+        <v>805593.1633718456</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.47544841914194e-06</v>
+        <v>2.752715133746551e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.5979938271605</v>
       </c>
       <c r="AH3" t="n">
-        <v>637104.5467736254</v>
+        <v>728708.482516742</v>
       </c>
     </row>
     <row r="4">
@@ -10571,28 +10571,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>517.6140068021369</v>
+        <v>591.6277707979469</v>
       </c>
       <c r="AB4" t="n">
-        <v>708.222319625015</v>
+        <v>809.4912167808991</v>
       </c>
       <c r="AC4" t="n">
-        <v>640.6305754362711</v>
+        <v>732.2345111793878</v>
       </c>
       <c r="AD4" t="n">
-        <v>517614.006802137</v>
+        <v>591627.770797947</v>
       </c>
       <c r="AE4" t="n">
-        <v>708222.3196250149</v>
+        <v>809491.2167808991</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.475925678860246e-06</v>
+        <v>2.753605547828306e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.59413580246914</v>
       </c>
       <c r="AH4" t="n">
-        <v>640630.5754362711</v>
+        <v>732234.5111793878</v>
       </c>
     </row>
   </sheetData>
@@ -18681,28 +18681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>529.8452042794132</v>
+        <v>610.4612672432759</v>
       </c>
       <c r="AB2" t="n">
-        <v>724.9575836157736</v>
+        <v>835.260037492621</v>
       </c>
       <c r="AC2" t="n">
-        <v>655.7686493198423</v>
+        <v>755.5439918091499</v>
       </c>
       <c r="AD2" t="n">
-        <v>529845.2042794132</v>
+        <v>610461.2672432759</v>
       </c>
       <c r="AE2" t="n">
-        <v>724957.5836157736</v>
+        <v>835260.037492621</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.426370272445849e-06</v>
+        <v>2.742962928869067e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.69367283950617</v>
       </c>
       <c r="AH2" t="n">
-        <v>655768.6493198423</v>
+        <v>755543.99180915</v>
       </c>
     </row>
     <row r="3">
@@ -18787,28 +18787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>483.1990776386256</v>
+        <v>563.7297997479168</v>
       </c>
       <c r="AB3" t="n">
-        <v>661.1342952639786</v>
+        <v>771.3199820186286</v>
       </c>
       <c r="AC3" t="n">
-        <v>598.0365660317951</v>
+        <v>697.7062854891639</v>
       </c>
       <c r="AD3" t="n">
-        <v>483199.0776386256</v>
+        <v>563729.7997479168</v>
       </c>
       <c r="AE3" t="n">
-        <v>661134.2952639787</v>
+        <v>771319.9820186286</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.489502569798512e-06</v>
+        <v>2.86436867785159e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.9837962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>598036.5660317951</v>
+        <v>697706.2854891638</v>
       </c>
     </row>
   </sheetData>
@@ -19084,28 +19084,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>444.0790374195982</v>
+        <v>519.6976381705218</v>
       </c>
       <c r="AB2" t="n">
-        <v>607.6085303819356</v>
+        <v>711.0732359865673</v>
       </c>
       <c r="AC2" t="n">
-        <v>549.6192250262112</v>
+        <v>643.2094043415633</v>
       </c>
       <c r="AD2" t="n">
-        <v>444079.0374195982</v>
+        <v>519697.6381705218</v>
       </c>
       <c r="AE2" t="n">
-        <v>607608.5303819355</v>
+        <v>711073.2359865673</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.440252283608922e-06</v>
+        <v>2.970663382762903e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.74305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>549619.2250262112</v>
+        <v>643209.4043415633</v>
       </c>
     </row>
   </sheetData>
@@ -19381,28 +19381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1153.586596612779</v>
+        <v>1272.338626545884</v>
       </c>
       <c r="AB2" t="n">
-        <v>1578.388074134424</v>
+        <v>1740.869840458712</v>
       </c>
       <c r="AC2" t="n">
-        <v>1427.748931620609</v>
+        <v>1574.723666211498</v>
       </c>
       <c r="AD2" t="n">
-        <v>1153586.596612779</v>
+        <v>1272338.626545884</v>
       </c>
       <c r="AE2" t="n">
-        <v>1578388.074134424</v>
+        <v>1740869.840458712</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.779652609519115e-07</v>
+        <v>1.718246384938225e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.85185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>1427748.931620609</v>
+        <v>1574723.666211498</v>
       </c>
     </row>
     <row r="3">
@@ -19487,28 +19487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>778.2705921266853</v>
+        <v>857.5524893967356</v>
       </c>
       <c r="AB3" t="n">
-        <v>1064.864159023022</v>
+        <v>1173.341148538359</v>
       </c>
       <c r="AC3" t="n">
-        <v>963.2350182320982</v>
+        <v>1061.359116116502</v>
       </c>
       <c r="AD3" t="n">
-        <v>778270.5921266853</v>
+        <v>857552.4893967356</v>
       </c>
       <c r="AE3" t="n">
-        <v>1064864.159023022</v>
+        <v>1173341.148538359</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.252936631972318e-06</v>
+        <v>2.201360236812105e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.05632716049383</v>
       </c>
       <c r="AH3" t="n">
-        <v>963235.0182320982</v>
+        <v>1061359.116116502</v>
       </c>
     </row>
     <row r="4">
@@ -19593,28 +19593,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>661.1872872940891</v>
+        <v>740.4690950555881</v>
       </c>
       <c r="AB4" t="n">
-        <v>904.665616000207</v>
+        <v>1013.142483045996</v>
       </c>
       <c r="AC4" t="n">
-        <v>818.3255993153132</v>
+        <v>916.4495864184909</v>
       </c>
       <c r="AD4" t="n">
-        <v>661187.2872940891</v>
+        <v>740469.0950555882</v>
       </c>
       <c r="AE4" t="n">
-        <v>904665.616000207</v>
+        <v>1013142.483045996</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.357186454748387e-06</v>
+        <v>2.384523063006029e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.74845679012346</v>
       </c>
       <c r="AH4" t="n">
-        <v>818325.5993153132</v>
+        <v>916449.5864184909</v>
       </c>
     </row>
     <row r="5">
@@ -19699,28 +19699,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>606.9396676151955</v>
+        <v>686.0508831761024</v>
       </c>
       <c r="AB5" t="n">
-        <v>830.4416295194709</v>
+        <v>938.6850847904126</v>
       </c>
       <c r="AC5" t="n">
-        <v>751.1854459302791</v>
+        <v>849.0982977508056</v>
       </c>
       <c r="AD5" t="n">
-        <v>606939.6676151955</v>
+        <v>686050.8831761024</v>
       </c>
       <c r="AE5" t="n">
-        <v>830441.6295194709</v>
+        <v>938685.0847904126</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.407649572999715e-06</v>
+        <v>2.473184771115841e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.18132716049383</v>
       </c>
       <c r="AH5" t="n">
-        <v>751185.4459302791</v>
+        <v>849098.2977508056</v>
       </c>
     </row>
     <row r="6">
@@ -19805,28 +19805,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>603.3927814742012</v>
+        <v>672.7644527740641</v>
       </c>
       <c r="AB6" t="n">
-        <v>825.5886234237896</v>
+        <v>920.506004558403</v>
       </c>
       <c r="AC6" t="n">
-        <v>746.7956039251329</v>
+        <v>832.6542034216399</v>
       </c>
       <c r="AD6" t="n">
-        <v>603392.7814742012</v>
+        <v>672764.4527740641</v>
       </c>
       <c r="AE6" t="n">
-        <v>825588.6234237896</v>
+        <v>920506.004558403</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.410640800645787e-06</v>
+        <v>2.478440240092713e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.15046296296297</v>
       </c>
       <c r="AH6" t="n">
-        <v>746795.6039251329</v>
+        <v>832654.2034216399</v>
       </c>
     </row>
   </sheetData>
@@ -20102,28 +20102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1554.969499900611</v>
+        <v>1688.236947087443</v>
       </c>
       <c r="AB2" t="n">
-        <v>2127.577870176779</v>
+        <v>2309.920270762627</v>
       </c>
       <c r="AC2" t="n">
-        <v>1924.524824321402</v>
+        <v>2089.464722114503</v>
       </c>
       <c r="AD2" t="n">
-        <v>1554969.499900612</v>
+        <v>1688236.947087443</v>
       </c>
       <c r="AE2" t="n">
-        <v>2127577.870176779</v>
+        <v>2309920.270762627</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.251257534702619e-07</v>
+        <v>1.410873084443574e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.95756172839506</v>
       </c>
       <c r="AH2" t="n">
-        <v>1924524.824321402</v>
+        <v>2089464.722114503</v>
       </c>
     </row>
     <row r="3">
@@ -20208,28 +20208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>962.336020114518</v>
+        <v>1054.571929720237</v>
       </c>
       <c r="AB3" t="n">
-        <v>1316.710597989549</v>
+        <v>1442.911838673239</v>
       </c>
       <c r="AC3" t="n">
-        <v>1191.045586532357</v>
+        <v>1305.202357929749</v>
       </c>
       <c r="AD3" t="n">
-        <v>962336.020114518</v>
+        <v>1054571.929720237</v>
       </c>
       <c r="AE3" t="n">
-        <v>1316710.597989549</v>
+        <v>1442911.838673239</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.127301771738806e-06</v>
+        <v>1.927560400463439e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.26774691358025</v>
       </c>
       <c r="AH3" t="n">
-        <v>1191045.586532357</v>
+        <v>1305202.357929749</v>
       </c>
     </row>
     <row r="4">
@@ -20314,28 +20314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>814.7373383257237</v>
+        <v>906.9731584228922</v>
       </c>
       <c r="AB4" t="n">
-        <v>1114.759569971845</v>
+        <v>1240.960688185987</v>
       </c>
       <c r="AC4" t="n">
-        <v>1008.368481188615</v>
+        <v>1122.525141804781</v>
       </c>
       <c r="AD4" t="n">
-        <v>814737.3383257238</v>
+        <v>906973.1584228922</v>
       </c>
       <c r="AE4" t="n">
-        <v>1114759.569971845</v>
+        <v>1240960.688185987</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.243400135938432e-06</v>
+        <v>2.126075664964977e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.5625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1008368.481188615</v>
+        <v>1122525.141804781</v>
       </c>
     </row>
     <row r="5">
@@ -20420,28 +20420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>737.8001376378394</v>
+        <v>819.8633918171639</v>
       </c>
       <c r="AB5" t="n">
-        <v>1009.490697760941</v>
+        <v>1121.773262504354</v>
       </c>
       <c r="AC5" t="n">
-        <v>913.1463223957287</v>
+        <v>1014.7127967496</v>
       </c>
       <c r="AD5" t="n">
-        <v>737800.1376378394</v>
+        <v>819863.3918171639</v>
       </c>
       <c r="AE5" t="n">
-        <v>1009490.697760941</v>
+        <v>1121773.262504354</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.30579967053584e-06</v>
+        <v>2.23277191517293e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.77160493827161</v>
       </c>
       <c r="AH5" t="n">
-        <v>913146.3223957287</v>
+        <v>1014712.7967496</v>
       </c>
     </row>
     <row r="6">
@@ -20526,28 +20526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>688.5838652181267</v>
+        <v>770.4765271968588</v>
       </c>
       <c r="AB6" t="n">
-        <v>942.1508225675907</v>
+        <v>1054.199975536156</v>
       </c>
       <c r="AC6" t="n">
-        <v>852.2332703787235</v>
+        <v>953.5886094499435</v>
       </c>
       <c r="AD6" t="n">
-        <v>688583.8652181267</v>
+        <v>770476.5271968588</v>
       </c>
       <c r="AE6" t="n">
-        <v>942150.8225675907</v>
+        <v>1054199.975536156</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.346687646157409e-06</v>
+        <v>2.302685796831863e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.29320987654321</v>
       </c>
       <c r="AH6" t="n">
-        <v>852233.2703787235</v>
+        <v>953588.6094499435</v>
       </c>
     </row>
     <row r="7">
@@ -20632,28 +20632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>658.5249933588998</v>
+        <v>730.3304302743597</v>
       </c>
       <c r="AB7" t="n">
-        <v>901.0229479859621</v>
+        <v>999.2703146059968</v>
       </c>
       <c r="AC7" t="n">
-        <v>815.030582423831</v>
+        <v>903.9013582646946</v>
       </c>
       <c r="AD7" t="n">
-        <v>658524.9933588998</v>
+        <v>730330.4302743598</v>
       </c>
       <c r="AE7" t="n">
-        <v>901022.9479859621</v>
+        <v>999270.3146059967</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.367718798108974e-06</v>
+        <v>2.338646722907084e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.05787037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>815030.582423831</v>
+        <v>903901.3582646947</v>
       </c>
     </row>
     <row r="8">
@@ -20738,28 +20738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>658.8007887961577</v>
+        <v>730.6062257116178</v>
       </c>
       <c r="AB8" t="n">
-        <v>901.4003034704544</v>
+        <v>999.647670090489</v>
       </c>
       <c r="AC8" t="n">
-        <v>815.3719236305052</v>
+        <v>904.242699471369</v>
       </c>
       <c r="AD8" t="n">
-        <v>658800.7887961577</v>
+        <v>730606.2257116177</v>
       </c>
       <c r="AE8" t="n">
-        <v>901400.3034704544</v>
+        <v>999647.670090489</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.369640426206071e-06</v>
+        <v>2.341932492802282e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.03472222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>815371.9236305052</v>
+        <v>904242.6994713689</v>
       </c>
     </row>
   </sheetData>
@@ -21035,28 +21035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>440.1850295396914</v>
+        <v>521.564314207164</v>
       </c>
       <c r="AB2" t="n">
-        <v>602.2805770091441</v>
+        <v>713.6273044918356</v>
       </c>
       <c r="AC2" t="n">
-        <v>544.7997640454894</v>
+        <v>645.5197161333465</v>
       </c>
       <c r="AD2" t="n">
-        <v>440185.0295396914</v>
+        <v>521564.314207164</v>
       </c>
       <c r="AE2" t="n">
-        <v>602280.577009144</v>
+        <v>713627.3044918356</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.339118366464085e-06</v>
+        <v>2.870347444478839e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.7608024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>544799.7640454894</v>
+        <v>645519.7161333465</v>
       </c>
     </row>
   </sheetData>
@@ -21332,28 +21332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>751.9260773668641</v>
+        <v>845.6231762630865</v>
       </c>
       <c r="AB2" t="n">
-        <v>1028.81843169067</v>
+        <v>1157.018936024748</v>
       </c>
       <c r="AC2" t="n">
-        <v>930.6294445258499</v>
+        <v>1046.594672656821</v>
       </c>
       <c r="AD2" t="n">
-        <v>751926.0773668641</v>
+        <v>845623.1762630865</v>
       </c>
       <c r="AE2" t="n">
-        <v>1028818.43169067</v>
+        <v>1157018.936024748</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.223611518732813e-06</v>
+        <v>2.254421672441384e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.53395061728395</v>
       </c>
       <c r="AH2" t="n">
-        <v>930629.4445258499</v>
+        <v>1046594.672656821</v>
       </c>
     </row>
     <row r="3">
@@ -21438,28 +21438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>543.2911110967565</v>
+        <v>618.3170628973916</v>
       </c>
       <c r="AB3" t="n">
-        <v>743.3548665148062</v>
+        <v>846.0086836798268</v>
       </c>
       <c r="AC3" t="n">
-        <v>672.4101213597401</v>
+        <v>765.2668022900682</v>
       </c>
       <c r="AD3" t="n">
-        <v>543291.1110967565</v>
+        <v>618317.0628973916</v>
       </c>
       <c r="AE3" t="n">
-        <v>743354.8665148062</v>
+        <v>846008.6836798268</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.45012132855685e-06</v>
+        <v>2.671750715581418e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.64043209876543</v>
       </c>
       <c r="AH3" t="n">
-        <v>672410.12135974</v>
+        <v>765266.8022900682</v>
       </c>
     </row>
     <row r="4">
@@ -21544,28 +21544,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>531.1561233294631</v>
+        <v>606.011482929506</v>
       </c>
       <c r="AB4" t="n">
-        <v>726.7512408937187</v>
+        <v>829.1716462838922</v>
       </c>
       <c r="AC4" t="n">
-        <v>657.3911224645942</v>
+        <v>750.0366681122715</v>
       </c>
       <c r="AD4" t="n">
-        <v>531156.1233294631</v>
+        <v>606011.482929506</v>
       </c>
       <c r="AE4" t="n">
-        <v>726751.2408937187</v>
+        <v>829171.6462838922</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.466875882359044e-06</v>
+        <v>2.70261985061773e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.46296296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>657391.1224645942</v>
+        <v>750036.6681122715</v>
       </c>
     </row>
   </sheetData>
@@ -21841,28 +21841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>984.6911510619861</v>
+        <v>1081.743542124989</v>
       </c>
       <c r="AB2" t="n">
-        <v>1347.297874390647</v>
+        <v>1480.089237492358</v>
       </c>
       <c r="AC2" t="n">
-        <v>1218.713656203246</v>
+        <v>1338.831597984378</v>
       </c>
       <c r="AD2" t="n">
-        <v>984691.1510619861</v>
+        <v>1081743.542124989</v>
       </c>
       <c r="AE2" t="n">
-        <v>1347297.874390647</v>
+        <v>1480089.237492358</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.067705316783093e-06</v>
+        <v>1.907377629134817e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.45138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1218713.656203246</v>
+        <v>1338831.597984378</v>
       </c>
     </row>
     <row r="3">
@@ -21947,28 +21947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>682.8230389342627</v>
+        <v>760.4479015154612</v>
       </c>
       <c r="AB3" t="n">
-        <v>934.2686058962897</v>
+        <v>1040.478367447128</v>
       </c>
       <c r="AC3" t="n">
-        <v>845.1033214037709</v>
+        <v>941.1765723785344</v>
       </c>
       <c r="AD3" t="n">
-        <v>682823.0389342627</v>
+        <v>760447.9015154613</v>
       </c>
       <c r="AE3" t="n">
-        <v>934268.6058962897</v>
+        <v>1040478.367447129</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.325971822321752e-06</v>
+        <v>2.368751893434126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.46604938271605</v>
       </c>
       <c r="AH3" t="n">
-        <v>845103.3214037709</v>
+        <v>941176.5723785344</v>
       </c>
     </row>
     <row r="4">
@@ -22053,28 +22053,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>586.5219236061838</v>
+        <v>664.0614453328106</v>
       </c>
       <c r="AB4" t="n">
-        <v>802.5051713990484</v>
+        <v>908.5981658276897</v>
       </c>
       <c r="AC4" t="n">
-        <v>725.9152041638047</v>
+        <v>821.8828321066292</v>
       </c>
       <c r="AD4" t="n">
-        <v>586521.9236061838</v>
+        <v>664061.4453328106</v>
       </c>
       <c r="AE4" t="n">
-        <v>802505.1713990484</v>
+        <v>908598.1658276897</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.42207888486934e-06</v>
+        <v>2.540440146947216e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.35493827160494</v>
       </c>
       <c r="AH4" t="n">
-        <v>725915.2041638047</v>
+        <v>821882.8321066292</v>
       </c>
     </row>
     <row r="5">
@@ -22159,28 +22159,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>574.5218916639074</v>
+        <v>652.061413390534</v>
       </c>
       <c r="AB5" t="n">
-        <v>786.0861982915799</v>
+        <v>892.1791927202211</v>
       </c>
       <c r="AC5" t="n">
-        <v>711.0632348055394</v>
+        <v>807.0308627483638</v>
       </c>
       <c r="AD5" t="n">
-        <v>574521.8916639073</v>
+        <v>652061.413390534</v>
       </c>
       <c r="AE5" t="n">
-        <v>786086.1982915798</v>
+        <v>892179.1927202211</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.434134717803754e-06</v>
+        <v>2.561977012670589e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.22762345679012</v>
       </c>
       <c r="AH5" t="n">
-        <v>711063.2348055394</v>
+        <v>807030.8627483638</v>
       </c>
     </row>
   </sheetData>
